--- a/Code/Results/Cases/Case_1_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9802373095706456</v>
+        <v>1.020428732269536</v>
       </c>
       <c r="D2">
-        <v>1.032502117568096</v>
+        <v>1.029579878360528</v>
       </c>
       <c r="E2">
-        <v>0.9973918264258107</v>
+        <v>1.030703627554892</v>
       </c>
       <c r="F2">
-        <v>1.003697401565122</v>
+        <v>1.040009003384796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051777886176018</v>
+        <v>1.031838522713</v>
       </c>
       <c r="J2">
-        <v>1.003025626073584</v>
+        <v>1.02562589572549</v>
       </c>
       <c r="K2">
-        <v>1.043526481565084</v>
+        <v>1.032393378082195</v>
       </c>
       <c r="L2">
-        <v>1.008887617241314</v>
+        <v>1.033513870259477</v>
       </c>
       <c r="M2">
-        <v>1.015105464932889</v>
+        <v>1.042792569557691</v>
       </c>
       <c r="N2">
-        <v>1.004903483038886</v>
+        <v>1.012586602164159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9849946858634864</v>
+        <v>1.021427042247619</v>
       </c>
       <c r="D3">
-        <v>1.034991466923715</v>
+        <v>1.030009215281493</v>
       </c>
       <c r="E3">
-        <v>1.001488820594127</v>
+        <v>1.031604445166615</v>
       </c>
       <c r="F3">
-        <v>1.008517916228961</v>
+        <v>1.041033913186199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052820190948072</v>
+        <v>1.031917995009093</v>
       </c>
       <c r="J3">
-        <v>1.005902940707515</v>
+        <v>1.026261134385619</v>
       </c>
       <c r="K3">
-        <v>1.045195376828862</v>
+        <v>1.032631910205245</v>
       </c>
       <c r="L3">
-        <v>1.012102687061534</v>
+        <v>1.034222850082924</v>
       </c>
       <c r="M3">
-        <v>1.019042956607785</v>
+        <v>1.043627249909035</v>
       </c>
       <c r="N3">
-        <v>1.005883214966146</v>
+        <v>1.012800030739152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.988006172445695</v>
+        <v>1.022073195801218</v>
       </c>
       <c r="D4">
-        <v>1.036553137097362</v>
+        <v>1.030284548244446</v>
       </c>
       <c r="E4">
-        <v>1.004085469603273</v>
+        <v>1.032187420117054</v>
       </c>
       <c r="F4">
-        <v>1.011564753362955</v>
+        <v>1.041696087706062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053455772099504</v>
+        <v>1.031966227086019</v>
       </c>
       <c r="J4">
-        <v>1.007721738408898</v>
+        <v>1.026671796055891</v>
       </c>
       <c r="K4">
-        <v>1.04622954030355</v>
+        <v>1.032783053183499</v>
       </c>
       <c r="L4">
-        <v>1.014134835427881</v>
+        <v>1.034681064828934</v>
       </c>
       <c r="M4">
-        <v>1.021525577331586</v>
+        <v>1.044165732416644</v>
       </c>
       <c r="N4">
-        <v>1.00650208030184</v>
+        <v>1.012937915722453</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9892568157835838</v>
+        <v>1.02234488156195</v>
       </c>
       <c r="D5">
-        <v>1.037198131302341</v>
+        <v>1.030399702505215</v>
       </c>
       <c r="E5">
-        <v>1.005164544432641</v>
+        <v>1.032432522293346</v>
       </c>
       <c r="F5">
-        <v>1.01282889438844</v>
+        <v>1.041974222520229</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053713794952762</v>
+        <v>1.031985737969248</v>
       </c>
       <c r="J5">
-        <v>1.008476413788651</v>
+        <v>1.026844346589642</v>
       </c>
       <c r="K5">
-        <v>1.046653536181025</v>
+        <v>1.032845824479435</v>
       </c>
       <c r="L5">
-        <v>1.014977988593332</v>
+        <v>1.034873567524955</v>
       </c>
       <c r="M5">
-        <v>1.022554132202414</v>
+        <v>1.044391723163206</v>
       </c>
       <c r="N5">
-        <v>1.006758756484874</v>
+        <v>1.012995830222074</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9894659194510192</v>
+        <v>1.022390501296687</v>
       </c>
       <c r="D6">
-        <v>1.037305758686305</v>
+        <v>1.030419002397035</v>
       </c>
       <c r="E6">
-        <v>1.005345002504765</v>
+        <v>1.032473677141283</v>
       </c>
       <c r="F6">
-        <v>1.013040183115307</v>
+        <v>1.042020908267508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053756583614018</v>
+        <v>1.031988968968795</v>
       </c>
       <c r="J6">
-        <v>1.008602553648559</v>
+        <v>1.026873313192246</v>
       </c>
       <c r="K6">
-        <v>1.046724100610541</v>
+        <v>1.032856318879839</v>
       </c>
       <c r="L6">
-        <v>1.015118913863529</v>
+        <v>1.034905881879459</v>
       </c>
       <c r="M6">
-        <v>1.022725956509773</v>
+        <v>1.044429645248006</v>
       </c>
       <c r="N6">
-        <v>1.006801651888928</v>
+        <v>1.013005551244098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9880229432632941</v>
+        <v>1.022076825911914</v>
       </c>
       <c r="D7">
-        <v>1.036561800566053</v>
+        <v>1.030286089285701</v>
       </c>
       <c r="E7">
-        <v>1.004099936997934</v>
+        <v>1.032190695109018</v>
       </c>
       <c r="F7">
-        <v>1.011581709954189</v>
+        <v>1.041699805115163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053459255703159</v>
+        <v>1.031966490803091</v>
       </c>
       <c r="J7">
-        <v>1.007731861052741</v>
+        <v>1.026674102045426</v>
       </c>
       <c r="K7">
-        <v>1.046235247831235</v>
+        <v>1.032783894962176</v>
       </c>
       <c r="L7">
-        <v>1.014146145051143</v>
+        <v>1.03468363757444</v>
       </c>
       <c r="M7">
-        <v>1.021539379813911</v>
+        <v>1.044168753639902</v>
       </c>
       <c r="N7">
-        <v>1.006505523603464</v>
+        <v>1.012938689784859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9818593138036888</v>
+        <v>1.020766078276846</v>
       </c>
       <c r="D8">
-        <v>1.033353711665898</v>
+        <v>1.029725485954004</v>
       </c>
       <c r="E8">
-        <v>0.9987879710645806</v>
+        <v>1.031008044731515</v>
       </c>
       <c r="F8">
-        <v>1.005341854951175</v>
+        <v>1.040355584882432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052138263863095</v>
+        <v>1.031866040591318</v>
       </c>
       <c r="J8">
-        <v>1.004007152838445</v>
+        <v>1.025840655970959</v>
       </c>
       <c r="K8">
-        <v>1.044100071947424</v>
+        <v>1.032474652992962</v>
       </c>
       <c r="L8">
-        <v>1.009984385120736</v>
+        <v>1.033753585136432</v>
       </c>
       <c r="M8">
-        <v>1.016449950364383</v>
+        <v>1.043074986467198</v>
       </c>
       <c r="N8">
-        <v>1.005237784387486</v>
+        <v>1.012658776246547</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9704564844847121</v>
+        <v>1.018457768087167</v>
       </c>
       <c r="D9">
-        <v>1.027313769265661</v>
+        <v>1.028718782224605</v>
       </c>
       <c r="E9">
-        <v>0.9889889876426272</v>
+        <v>1.028924763710377</v>
       </c>
       <c r="F9">
-        <v>0.9937647503295376</v>
+        <v>1.037979216295448</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049506667406378</v>
+        <v>1.031664664384542</v>
       </c>
       <c r="J9">
-        <v>0.9970974393124238</v>
+        <v>1.024369131349861</v>
       </c>
       <c r="K9">
-        <v>1.039978715239771</v>
+        <v>1.031905296663936</v>
       </c>
       <c r="L9">
-        <v>1.002263273300814</v>
+        <v>1.032110595887492</v>
       </c>
       <c r="M9">
-        <v>1.006959806710756</v>
+        <v>1.041135351104114</v>
       </c>
       <c r="N9">
-        <v>1.002882709615762</v>
+        <v>1.012163877582756</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9624457169164822</v>
+        <v>1.016919847907616</v>
       </c>
       <c r="D10">
-        <v>1.023010783799601</v>
+        <v>1.028035130888171</v>
       </c>
       <c r="E10">
-        <v>0.9821282344327442</v>
+        <v>1.027536435949502</v>
       </c>
       <c r="F10">
-        <v>0.9856142629512712</v>
+        <v>1.03638988195968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047538517741848</v>
+        <v>1.031514127252027</v>
       </c>
       <c r="J10">
-        <v>0.9922328320853399</v>
+        <v>1.023386206876639</v>
       </c>
       <c r="K10">
-        <v>1.036976639422572</v>
+        <v>1.031509430476232</v>
       </c>
       <c r="L10">
-        <v>0.9968278446666909</v>
+        <v>1.031012548909293</v>
       </c>
       <c r="M10">
-        <v>1.0002482066096</v>
+        <v>1.039834088109901</v>
       </c>
       <c r="N10">
-        <v>1.001222773404998</v>
+        <v>1.011832846431891</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9588690178510132</v>
+        <v>1.016254139789963</v>
       </c>
       <c r="D11">
-        <v>1.02107802059051</v>
+        <v>1.027736165877125</v>
       </c>
       <c r="E11">
-        <v>0.9790715095799947</v>
+        <v>1.026935410286551</v>
       </c>
       <c r="F11">
-        <v>0.9819723147244267</v>
+        <v>1.0357004901356</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046633241643317</v>
+        <v>1.031445100098686</v>
       </c>
       <c r="J11">
-        <v>0.9900589742562653</v>
+        <v>1.022960143232126</v>
       </c>
       <c r="K11">
-        <v>1.035613090495976</v>
+        <v>1.03133417764659</v>
       </c>
       <c r="L11">
-        <v>0.9943992016172475</v>
+        <v>1.030536446309741</v>
       </c>
       <c r="M11">
-        <v>0.9972424074474692</v>
+        <v>1.039268704379107</v>
       </c>
       <c r="N11">
-        <v>1.00048061611049</v>
+        <v>1.011689248426187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9575232275492848</v>
+        <v>1.016006899484464</v>
       </c>
       <c r="D12">
-        <v>1.02034929028389</v>
+        <v>1.027624677826478</v>
       </c>
       <c r="E12">
-        <v>0.9779224351145386</v>
+        <v>1.026712182811233</v>
       </c>
       <c r="F12">
-        <v>0.980601653844968</v>
+        <v>1.035444240108314</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046288791665183</v>
+        <v>1.031418884407718</v>
       </c>
       <c r="J12">
-        <v>0.9892407958694032</v>
+        <v>1.02280181689338</v>
       </c>
       <c r="K12">
-        <v>1.035096745387553</v>
+        <v>1.031268506039808</v>
       </c>
       <c r="L12">
-        <v>0.9934851920784872</v>
+        <v>1.030359504948642</v>
       </c>
       <c r="M12">
-        <v>0.9961101770581926</v>
+        <v>1.039058407134772</v>
       </c>
       <c r="N12">
-        <v>1.000201238925497</v>
+        <v>1.011635870963453</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.95781270182316</v>
+        <v>1.0160599318602</v>
       </c>
       <c r="D13">
-        <v>1.020506101056885</v>
+        <v>1.027648612224232</v>
       </c>
       <c r="E13">
-        <v>0.9781695468736528</v>
+        <v>1.026760064935392</v>
       </c>
       <c r="F13">
-        <v>0.9808964902689985</v>
+        <v>1.035499214702692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046363051684589</v>
+        <v>1.031424533800593</v>
       </c>
       <c r="J13">
-        <v>0.9894167923652873</v>
+        <v>1.022835781470954</v>
       </c>
       <c r="K13">
-        <v>1.035207954565962</v>
+        <v>1.03128261880584</v>
       </c>
       <c r="L13">
-        <v>0.9936817994632949</v>
+        <v>1.030397463789717</v>
       </c>
       <c r="M13">
-        <v>0.9963537698111317</v>
+        <v>1.039103529647128</v>
       </c>
       <c r="N13">
-        <v>1.00026133727984</v>
+        <v>1.011647322361776</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9587581323981389</v>
+        <v>1.016233702148966</v>
       </c>
       <c r="D14">
-        <v>1.021018006381012</v>
+        <v>1.027726959184115</v>
       </c>
       <c r="E14">
-        <v>0.9789768101741831</v>
+        <v>1.026916957816993</v>
       </c>
       <c r="F14">
-        <v>0.9818593859082304</v>
+        <v>1.035679312078482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046604937705326</v>
+        <v>1.031442944841697</v>
       </c>
       <c r="J14">
-        <v>0.9899915653712424</v>
+        <v>1.022947057298798</v>
       </c>
       <c r="K14">
-        <v>1.03557061226676</v>
+        <v>1.031328760927354</v>
       </c>
       <c r="L14">
-        <v>0.9943238959194957</v>
+        <v>1.030521822229335</v>
       </c>
       <c r="M14">
-        <v>0.9971491427690603</v>
+        <v>1.039251327023179</v>
       </c>
       <c r="N14">
-        <v>1.00045759949068</v>
+        <v>1.011684837018261</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593383262923693</v>
+        <v>1.016340772177114</v>
       </c>
       <c r="D15">
-        <v>1.021331963464921</v>
+        <v>1.027775173215705</v>
       </c>
       <c r="E15">
-        <v>0.9794723566794896</v>
+        <v>1.027013627401149</v>
       </c>
       <c r="F15">
-        <v>0.9824502590966976</v>
+        <v>1.035790252298469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046752879546062</v>
+        <v>1.031454212219877</v>
       </c>
       <c r="J15">
-        <v>0.9903442646728398</v>
+        <v>1.023015609098862</v>
       </c>
       <c r="K15">
-        <v>1.035792741356587</v>
+        <v>1.031357114491056</v>
       </c>
       <c r="L15">
-        <v>0.994717915887226</v>
+        <v>1.030598430911882</v>
       </c>
       <c r="M15">
-        <v>0.9976370880504739</v>
+        <v>1.039342351662113</v>
       </c>
       <c r="N15">
-        <v>1.000578025906546</v>
+        <v>1.011707945904569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9626807302048868</v>
+        <v>1.016964033434091</v>
       </c>
       <c r="D16">
-        <v>1.023137558935773</v>
+        <v>1.028054910493856</v>
       </c>
       <c r="E16">
-        <v>0.9823292247713007</v>
+        <v>1.027576326836427</v>
       </c>
       <c r="F16">
-        <v>0.9858535131340542</v>
+        <v>1.03643560943833</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047597461806724</v>
+        <v>1.031518627507879</v>
       </c>
       <c r="J16">
-        <v>0.9923756345270447</v>
+        <v>1.023414473853339</v>
       </c>
       <c r="K16">
-        <v>1.037065767741703</v>
+        <v>1.031520980696898</v>
       </c>
       <c r="L16">
-        <v>0.9969873918555778</v>
+        <v>1.031044132821137</v>
       </c>
       <c r="M16">
-        <v>1.000445527752678</v>
+        <v>1.039871570238452</v>
       </c>
       <c r="N16">
-        <v>1.001271518988148</v>
+        <v>1.011842371111255</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9647477255681545</v>
+        <v>1.017355048091178</v>
       </c>
       <c r="D17">
-        <v>1.024251291213779</v>
+        <v>1.028229597094168</v>
       </c>
       <c r="E17">
-        <v>0.9840977306485025</v>
+        <v>1.027929328526753</v>
       </c>
       <c r="F17">
-        <v>0.9879574600792945</v>
+        <v>1.036840104490182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048112892249007</v>
+        <v>1.031558005568083</v>
       </c>
       <c r="J17">
-        <v>0.9936314072837638</v>
+        <v>1.023664550758411</v>
       </c>
       <c r="K17">
-        <v>1.037847061335893</v>
+        <v>1.031622742976221</v>
       </c>
       <c r="L17">
-        <v>0.998390450224921</v>
+        <v>1.031323538699696</v>
       </c>
       <c r="M17">
-        <v>1.002179985570643</v>
+        <v>1.040203019639469</v>
       </c>
       <c r="N17">
-        <v>1.001700134588391</v>
+        <v>1.011926623198248</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9659430233300557</v>
+        <v>1.017583141690467</v>
       </c>
       <c r="D18">
-        <v>1.024894228848362</v>
+        <v>1.028331205053017</v>
       </c>
       <c r="E18">
-        <v>0.9851210289508121</v>
+        <v>1.028135240876664</v>
       </c>
       <c r="F18">
-        <v>0.9891738470255479</v>
+        <v>1.037075923803407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048408430845767</v>
+        <v>1.031580603174813</v>
       </c>
       <c r="J18">
-        <v>0.9943574115726016</v>
+        <v>1.02381037285804</v>
       </c>
       <c r="K18">
-        <v>1.038296658901221</v>
+        <v>1.031681728539209</v>
       </c>
       <c r="L18">
-        <v>0.9992016323538347</v>
+        <v>1.031486449530693</v>
       </c>
       <c r="M18">
-        <v>1.003182107826275</v>
+        <v>1.040396162342565</v>
       </c>
       <c r="N18">
-        <v>1.001947895398736</v>
+        <v>1.011975740980657</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9663488638751322</v>
+        <v>1.017660919335405</v>
       </c>
       <c r="D19">
-        <v>1.025112331066697</v>
+        <v>1.028365802530607</v>
       </c>
       <c r="E19">
-        <v>0.9854685713295928</v>
+        <v>1.028205453752356</v>
       </c>
       <c r="F19">
-        <v>0.989586797449066</v>
+        <v>1.037156312420901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048508342651495</v>
+        <v>1.031588245408317</v>
       </c>
       <c r="J19">
-        <v>0.9946038801975603</v>
+        <v>1.023860087029973</v>
       </c>
       <c r="K19">
-        <v>1.038448931192511</v>
+        <v>1.031701778159824</v>
       </c>
       <c r="L19">
-        <v>0.9994770217825256</v>
+        <v>1.031541987396352</v>
       </c>
       <c r="M19">
-        <v>1.003522207008696</v>
+        <v>1.040461987407649</v>
       </c>
       <c r="N19">
-        <v>1.002032000503856</v>
+        <v>1.011992484622944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9645270337507679</v>
+        <v>1.01731309370851</v>
       </c>
       <c r="D20">
-        <v>1.024132492169397</v>
+        <v>1.028210884209642</v>
       </c>
       <c r="E20">
-        <v>0.9839088444022346</v>
+        <v>1.027891453494064</v>
       </c>
       <c r="F20">
-        <v>0.9877328511585954</v>
+        <v>1.036796717970084</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048058120826067</v>
+        <v>1.03155381903279</v>
       </c>
       <c r="J20">
-        <v>0.9934973476604551</v>
+        <v>1.023637724372456</v>
       </c>
       <c r="K20">
-        <v>1.037763870832302</v>
+        <v>1.031611863170149</v>
       </c>
       <c r="L20">
-        <v>0.9982406642367625</v>
+        <v>1.031293567490013</v>
       </c>
       <c r="M20">
-        <v>1.001994888656838</v>
+        <v>1.040167477498758</v>
       </c>
       <c r="N20">
-        <v>1.001654381579518</v>
+        <v>1.011917586334673</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9584802113250991</v>
+        <v>1.016182530209552</v>
       </c>
       <c r="D21">
-        <v>1.020867564685759</v>
+        <v>1.027703900059749</v>
       </c>
       <c r="E21">
-        <v>0.9787394749844075</v>
+        <v>1.026870756209622</v>
       </c>
       <c r="F21">
-        <v>0.9815763386334451</v>
+        <v>1.035626282829194</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046533936235913</v>
+        <v>1.031437539135523</v>
       </c>
       <c r="J21">
-        <v>0.9898226095815135</v>
+        <v>1.02291429119643</v>
       </c>
       <c r="K21">
-        <v>1.035464093405879</v>
+        <v>1.031315189076682</v>
       </c>
       <c r="L21">
-        <v>0.9941351483785738</v>
+        <v>1.030485204403914</v>
       </c>
       <c r="M21">
-        <v>0.9969153663567281</v>
+        <v>1.039207812336121</v>
       </c>
       <c r="N21">
-        <v>1.000399909110732</v>
+        <v>1.011673790955667</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9545779918963428</v>
+        <v>1.0154718929247</v>
       </c>
       <c r="D22">
-        <v>1.018751995264871</v>
+        <v>1.027382599495569</v>
       </c>
       <c r="E22">
-        <v>0.9754097751330157</v>
+        <v>1.026229120651583</v>
       </c>
       <c r="F22">
-        <v>0.9776015296404906</v>
+        <v>1.034889347431826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0455281140724</v>
+        <v>1.031361097902842</v>
       </c>
       <c r="J22">
-        <v>0.9874498665610679</v>
+        <v>1.022459050683295</v>
       </c>
       <c r="K22">
-        <v>1.033960904985233</v>
+        <v>1.031125333056326</v>
       </c>
       <c r="L22">
-        <v>0.9914846318689713</v>
+        <v>1.029976401312478</v>
       </c>
       <c r="M22">
-        <v>0.993630157628869</v>
+        <v>1.038602763822839</v>
       </c>
       <c r="N22">
-        <v>0.9995896188128256</v>
+        <v>1.011520282907029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9566565067433683</v>
+        <v>1.015848596897861</v>
       </c>
       <c r="D23">
-        <v>1.019879579388842</v>
+        <v>1.027553166905001</v>
       </c>
       <c r="E23">
-        <v>0.9771827163473054</v>
+        <v>1.026569252425848</v>
       </c>
       <c r="F23">
-        <v>0.9797188401743813</v>
+        <v>1.035280108736269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046065900290936</v>
+        <v>1.031401936131991</v>
       </c>
       <c r="J23">
-        <v>0.9887138117308838</v>
+        <v>1.02270041906748</v>
       </c>
       <c r="K23">
-        <v>1.034763305145317</v>
+        <v>1.031226293854316</v>
       </c>
       <c r="L23">
-        <v>0.9928965036365842</v>
+        <v>1.030246179677592</v>
       </c>
       <c r="M23">
-        <v>0.9953806578671535</v>
+        <v>1.038923669309951</v>
       </c>
       <c r="N23">
-        <v>1.000021280315863</v>
+        <v>1.011601681618338</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9646267867796219</v>
+        <v>1.017332051021947</v>
       </c>
       <c r="D24">
-        <v>1.024186192971489</v>
+        <v>1.028219340633712</v>
       </c>
       <c r="E24">
-        <v>0.9839942193792556</v>
+        <v>1.027908567552532</v>
       </c>
       <c r="F24">
-        <v>0.9878343755979355</v>
+        <v>1.036816322828647</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048082885429001</v>
+        <v>1.031555711894149</v>
       </c>
       <c r="J24">
-        <v>0.9935579433754903</v>
+        <v>1.023649846195956</v>
       </c>
       <c r="K24">
-        <v>1.037801479923639</v>
+        <v>1.031616780431601</v>
       </c>
       <c r="L24">
-        <v>0.9983083682757838</v>
+        <v>1.031307110380728</v>
       </c>
       <c r="M24">
-        <v>1.002078555464075</v>
+        <v>1.040183538037239</v>
       </c>
       <c r="N24">
-        <v>1.001675062313568</v>
+        <v>1.011921669781672</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C25">
-        <v>0.973472982711805</v>
+        <v>1.019054354681104</v>
       </c>
       <c r="D25">
-        <v>1.028922686465297</v>
+        <v>1.028981256504333</v>
       </c>
       <c r="E25">
-        <v>0.9915775108879853</v>
+        <v>1.029463253028167</v>
       </c>
       <c r="F25">
-        <v>0.9968307123418469</v>
+        <v>1.038594466824935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050223932611133</v>
+        <v>1.031719602601554</v>
       </c>
       <c r="J25">
-        <v>0.9989272962311798</v>
+        <v>1.024749894367964</v>
       </c>
       <c r="K25">
-        <v>1.041088013291202</v>
+        <v>1.032055370493441</v>
       </c>
       <c r="L25">
-        <v>1.00430799756669</v>
+        <v>1.032535830985353</v>
       </c>
       <c r="M25">
-        <v>1.009478427460612</v>
+        <v>1.04163823971371</v>
       </c>
       <c r="N25">
-        <v>1.003506740663406</v>
+        <v>1.012292015425343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020428732269536</v>
+        <v>0.9802373095706456</v>
       </c>
       <c r="D2">
-        <v>1.029579878360528</v>
+        <v>1.032502117568095</v>
       </c>
       <c r="E2">
-        <v>1.030703627554892</v>
+        <v>0.9973918264258105</v>
       </c>
       <c r="F2">
-        <v>1.040009003384796</v>
+        <v>1.003697401565121</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031838522713</v>
+        <v>1.051777886176017</v>
       </c>
       <c r="J2">
-        <v>1.02562589572549</v>
+        <v>1.003025626073584</v>
       </c>
       <c r="K2">
-        <v>1.032393378082195</v>
+        <v>1.043526481565084</v>
       </c>
       <c r="L2">
-        <v>1.033513870259477</v>
+        <v>1.008887617241314</v>
       </c>
       <c r="M2">
-        <v>1.042792569557691</v>
+        <v>1.015105464932888</v>
       </c>
       <c r="N2">
-        <v>1.012586602164159</v>
+        <v>1.004903483038886</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021427042247619</v>
+        <v>0.9849946858634862</v>
       </c>
       <c r="D3">
-        <v>1.030009215281493</v>
+        <v>1.034991466923714</v>
       </c>
       <c r="E3">
-        <v>1.031604445166615</v>
+        <v>1.001488820594127</v>
       </c>
       <c r="F3">
-        <v>1.041033913186199</v>
+        <v>1.008517916228961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031917995009093</v>
+        <v>1.052820190948072</v>
       </c>
       <c r="J3">
-        <v>1.026261134385619</v>
+        <v>1.005902940707515</v>
       </c>
       <c r="K3">
-        <v>1.032631910205245</v>
+        <v>1.045195376828861</v>
       </c>
       <c r="L3">
-        <v>1.034222850082924</v>
+        <v>1.012102687061534</v>
       </c>
       <c r="M3">
-        <v>1.043627249909035</v>
+        <v>1.019042956607785</v>
       </c>
       <c r="N3">
-        <v>1.012800030739152</v>
+        <v>1.005883214966146</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.022073195801218</v>
+        <v>0.9880061724456944</v>
       </c>
       <c r="D4">
-        <v>1.030284548244446</v>
+        <v>1.036553137097362</v>
       </c>
       <c r="E4">
-        <v>1.032187420117054</v>
+        <v>1.004085469603272</v>
       </c>
       <c r="F4">
-        <v>1.041696087706062</v>
+        <v>1.011564753362955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031966227086019</v>
+        <v>1.053455772099504</v>
       </c>
       <c r="J4">
-        <v>1.026671796055891</v>
+        <v>1.007721738408898</v>
       </c>
       <c r="K4">
-        <v>1.032783053183499</v>
+        <v>1.04622954030355</v>
       </c>
       <c r="L4">
-        <v>1.034681064828934</v>
+        <v>1.01413483542788</v>
       </c>
       <c r="M4">
-        <v>1.044165732416644</v>
+        <v>1.021525577331586</v>
       </c>
       <c r="N4">
-        <v>1.012937915722453</v>
+        <v>1.006502080301839</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02234488156195</v>
+        <v>0.9892568157835836</v>
       </c>
       <c r="D5">
-        <v>1.030399702505215</v>
+        <v>1.03719813130234</v>
       </c>
       <c r="E5">
-        <v>1.032432522293346</v>
+        <v>1.005164544432641</v>
       </c>
       <c r="F5">
-        <v>1.041974222520229</v>
+        <v>1.01282889438844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031985737969248</v>
+        <v>1.053713794952762</v>
       </c>
       <c r="J5">
-        <v>1.026844346589642</v>
+        <v>1.00847641378865</v>
       </c>
       <c r="K5">
-        <v>1.032845824479435</v>
+        <v>1.046653536181025</v>
       </c>
       <c r="L5">
-        <v>1.034873567524955</v>
+        <v>1.014977988593331</v>
       </c>
       <c r="M5">
-        <v>1.044391723163206</v>
+        <v>1.022554132202414</v>
       </c>
       <c r="N5">
-        <v>1.012995830222074</v>
+        <v>1.006758756484874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022390501296687</v>
+        <v>0.9894659194510192</v>
       </c>
       <c r="D6">
-        <v>1.030419002397035</v>
+        <v>1.037305758686305</v>
       </c>
       <c r="E6">
-        <v>1.032473677141283</v>
+        <v>1.005345002504765</v>
       </c>
       <c r="F6">
-        <v>1.042020908267508</v>
+        <v>1.013040183115307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031988968968795</v>
+        <v>1.053756583614018</v>
       </c>
       <c r="J6">
-        <v>1.026873313192246</v>
+        <v>1.008602553648559</v>
       </c>
       <c r="K6">
-        <v>1.032856318879839</v>
+        <v>1.046724100610541</v>
       </c>
       <c r="L6">
-        <v>1.034905881879459</v>
+        <v>1.015118913863529</v>
       </c>
       <c r="M6">
-        <v>1.044429645248006</v>
+        <v>1.022725956509773</v>
       </c>
       <c r="N6">
-        <v>1.013005551244098</v>
+        <v>1.006801651888928</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022076825911914</v>
+        <v>0.9880229432632944</v>
       </c>
       <c r="D7">
-        <v>1.030286089285701</v>
+        <v>1.036561800566053</v>
       </c>
       <c r="E7">
-        <v>1.032190695109018</v>
+        <v>1.004099936997934</v>
       </c>
       <c r="F7">
-        <v>1.041699805115163</v>
+        <v>1.011581709954189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031966490803091</v>
+        <v>1.053459255703159</v>
       </c>
       <c r="J7">
-        <v>1.026674102045426</v>
+        <v>1.007731861052742</v>
       </c>
       <c r="K7">
-        <v>1.032783894962176</v>
+        <v>1.046235247831234</v>
       </c>
       <c r="L7">
-        <v>1.03468363757444</v>
+        <v>1.014146145051144</v>
       </c>
       <c r="M7">
-        <v>1.044168753639902</v>
+        <v>1.021539379813911</v>
       </c>
       <c r="N7">
-        <v>1.012938689784859</v>
+        <v>1.006505523603464</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020766078276846</v>
+        <v>0.9818593138036887</v>
       </c>
       <c r="D8">
-        <v>1.029725485954004</v>
+        <v>1.033353711665898</v>
       </c>
       <c r="E8">
-        <v>1.031008044731515</v>
+        <v>0.9987879710645799</v>
       </c>
       <c r="F8">
-        <v>1.040355584882432</v>
+        <v>1.005341854951175</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031866040591318</v>
+        <v>1.052138263863096</v>
       </c>
       <c r="J8">
-        <v>1.025840655970959</v>
+        <v>1.004007152838445</v>
       </c>
       <c r="K8">
-        <v>1.032474652992962</v>
+        <v>1.044100071947424</v>
       </c>
       <c r="L8">
-        <v>1.033753585136432</v>
+        <v>1.009984385120735</v>
       </c>
       <c r="M8">
-        <v>1.043074986467198</v>
+        <v>1.016449950364382</v>
       </c>
       <c r="N8">
-        <v>1.012658776246547</v>
+        <v>1.005237784387486</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018457768087167</v>
+        <v>0.9704564844847123</v>
       </c>
       <c r="D9">
-        <v>1.028718782224605</v>
+        <v>1.027313769265661</v>
       </c>
       <c r="E9">
-        <v>1.028924763710377</v>
+        <v>0.9889889876426274</v>
       </c>
       <c r="F9">
-        <v>1.037979216295448</v>
+        <v>0.9937647503295378</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031664664384542</v>
+        <v>1.049506667406378</v>
       </c>
       <c r="J9">
-        <v>1.024369131349861</v>
+        <v>0.9970974393124239</v>
       </c>
       <c r="K9">
-        <v>1.031905296663936</v>
+        <v>1.03997871523977</v>
       </c>
       <c r="L9">
-        <v>1.032110595887492</v>
+        <v>1.002263273300814</v>
       </c>
       <c r="M9">
-        <v>1.041135351104114</v>
+        <v>1.006959806710757</v>
       </c>
       <c r="N9">
-        <v>1.012163877582756</v>
+        <v>1.002882709615762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016919847907616</v>
+        <v>0.9624457169164818</v>
       </c>
       <c r="D10">
-        <v>1.028035130888171</v>
+        <v>1.0230107837996</v>
       </c>
       <c r="E10">
-        <v>1.027536435949502</v>
+        <v>0.9821282344327443</v>
       </c>
       <c r="F10">
-        <v>1.03638988195968</v>
+        <v>0.985614262951271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031514127252027</v>
+        <v>1.047538517741847</v>
       </c>
       <c r="J10">
-        <v>1.023386206876639</v>
+        <v>0.9922328320853397</v>
       </c>
       <c r="K10">
-        <v>1.031509430476232</v>
+        <v>1.036976639422572</v>
       </c>
       <c r="L10">
-        <v>1.031012548909293</v>
+        <v>0.9968278446666907</v>
       </c>
       <c r="M10">
-        <v>1.039834088109901</v>
+        <v>1.0002482066096</v>
       </c>
       <c r="N10">
-        <v>1.011832846431891</v>
+        <v>1.001222773404998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016254139789963</v>
+        <v>0.9588690178510124</v>
       </c>
       <c r="D11">
-        <v>1.027736165877125</v>
+        <v>1.02107802059051</v>
       </c>
       <c r="E11">
-        <v>1.026935410286551</v>
+        <v>0.9790715095799937</v>
       </c>
       <c r="F11">
-        <v>1.0357004901356</v>
+        <v>0.9819723147244257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031445100098686</v>
+        <v>1.046633241643317</v>
       </c>
       <c r="J11">
-        <v>1.022960143232126</v>
+        <v>0.9900589742562647</v>
       </c>
       <c r="K11">
-        <v>1.03133417764659</v>
+        <v>1.035613090495976</v>
       </c>
       <c r="L11">
-        <v>1.030536446309741</v>
+        <v>0.9943992016172466</v>
       </c>
       <c r="M11">
-        <v>1.039268704379107</v>
+        <v>0.9972424074474682</v>
       </c>
       <c r="N11">
-        <v>1.011689248426187</v>
+        <v>1.000480616110489</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016006899484464</v>
+        <v>0.9575232275492842</v>
       </c>
       <c r="D12">
-        <v>1.027624677826478</v>
+        <v>1.02034929028389</v>
       </c>
       <c r="E12">
-        <v>1.026712182811233</v>
+        <v>0.9779224351145382</v>
       </c>
       <c r="F12">
-        <v>1.035444240108314</v>
+        <v>0.9806016538449679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031418884407718</v>
+        <v>1.046288791665183</v>
       </c>
       <c r="J12">
-        <v>1.02280181689338</v>
+        <v>0.9892407958694031</v>
       </c>
       <c r="K12">
-        <v>1.031268506039808</v>
+        <v>1.035096745387553</v>
       </c>
       <c r="L12">
-        <v>1.030359504948642</v>
+        <v>0.9934851920784868</v>
       </c>
       <c r="M12">
-        <v>1.039058407134772</v>
+        <v>0.9961101770581924</v>
       </c>
       <c r="N12">
-        <v>1.011635870963453</v>
+        <v>1.000201238925497</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0160599318602</v>
+        <v>0.95781270182316</v>
       </c>
       <c r="D13">
-        <v>1.027648612224232</v>
+        <v>1.020506101056886</v>
       </c>
       <c r="E13">
-        <v>1.026760064935392</v>
+        <v>0.9781695468736528</v>
       </c>
       <c r="F13">
-        <v>1.035499214702692</v>
+        <v>0.9808964902689986</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031424533800593</v>
+        <v>1.04636305168459</v>
       </c>
       <c r="J13">
-        <v>1.022835781470954</v>
+        <v>0.9894167923652873</v>
       </c>
       <c r="K13">
-        <v>1.03128261880584</v>
+        <v>1.035207954565963</v>
       </c>
       <c r="L13">
-        <v>1.030397463789717</v>
+        <v>0.9936817994632949</v>
       </c>
       <c r="M13">
-        <v>1.039103529647128</v>
+        <v>0.9963537698111316</v>
       </c>
       <c r="N13">
-        <v>1.011647322361776</v>
+        <v>1.00026133727984</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016233702148966</v>
+        <v>0.9587581323981388</v>
       </c>
       <c r="D14">
-        <v>1.027726959184115</v>
+        <v>1.021018006381012</v>
       </c>
       <c r="E14">
-        <v>1.026916957816993</v>
+        <v>0.9789768101741828</v>
       </c>
       <c r="F14">
-        <v>1.035679312078482</v>
+        <v>0.9818593859082301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031442944841697</v>
+        <v>1.046604937705326</v>
       </c>
       <c r="J14">
-        <v>1.022947057298798</v>
+        <v>0.9899915653712421</v>
       </c>
       <c r="K14">
-        <v>1.031328760927354</v>
+        <v>1.03557061226676</v>
       </c>
       <c r="L14">
-        <v>1.030521822229335</v>
+        <v>0.9943238959194954</v>
       </c>
       <c r="M14">
-        <v>1.039251327023179</v>
+        <v>0.99714914276906</v>
       </c>
       <c r="N14">
-        <v>1.011684837018261</v>
+        <v>1.00045759949068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016340772177114</v>
+        <v>0.9593383262923691</v>
       </c>
       <c r="D15">
-        <v>1.027775173215705</v>
+        <v>1.021331963464921</v>
       </c>
       <c r="E15">
-        <v>1.027013627401149</v>
+        <v>0.9794723566794896</v>
       </c>
       <c r="F15">
-        <v>1.035790252298469</v>
+        <v>0.9824502590966976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031454212219877</v>
+        <v>1.046752879546063</v>
       </c>
       <c r="J15">
-        <v>1.023015609098862</v>
+        <v>0.9903442646728398</v>
       </c>
       <c r="K15">
-        <v>1.031357114491056</v>
+        <v>1.035792741356587</v>
       </c>
       <c r="L15">
-        <v>1.030598430911882</v>
+        <v>0.994717915887226</v>
       </c>
       <c r="M15">
-        <v>1.039342351662113</v>
+        <v>0.9976370880504739</v>
       </c>
       <c r="N15">
-        <v>1.011707945904569</v>
+        <v>1.000578025906546</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016964033434091</v>
+        <v>0.9626807302048865</v>
       </c>
       <c r="D16">
-        <v>1.028054910493856</v>
+        <v>1.023137558935773</v>
       </c>
       <c r="E16">
-        <v>1.027576326836427</v>
+        <v>0.9823292247713006</v>
       </c>
       <c r="F16">
-        <v>1.03643560943833</v>
+        <v>0.9858535131340539</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031518627507879</v>
+        <v>1.047597461806724</v>
       </c>
       <c r="J16">
-        <v>1.023414473853339</v>
+        <v>0.9923756345270445</v>
       </c>
       <c r="K16">
-        <v>1.031520980696898</v>
+        <v>1.037065767741703</v>
       </c>
       <c r="L16">
-        <v>1.031044132821137</v>
+        <v>0.9969873918555776</v>
       </c>
       <c r="M16">
-        <v>1.039871570238452</v>
+        <v>1.000445527752678</v>
       </c>
       <c r="N16">
-        <v>1.011842371111255</v>
+        <v>1.001271518988148</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017355048091178</v>
+        <v>0.9647477255681548</v>
       </c>
       <c r="D17">
-        <v>1.028229597094168</v>
+        <v>1.024251291213779</v>
       </c>
       <c r="E17">
-        <v>1.027929328526753</v>
+        <v>0.9840977306485026</v>
       </c>
       <c r="F17">
-        <v>1.036840104490182</v>
+        <v>0.9879574600792944</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031558005568083</v>
+        <v>1.048112892249007</v>
       </c>
       <c r="J17">
-        <v>1.023664550758411</v>
+        <v>0.993631407283764</v>
       </c>
       <c r="K17">
-        <v>1.031622742976221</v>
+        <v>1.037847061335893</v>
       </c>
       <c r="L17">
-        <v>1.031323538699696</v>
+        <v>0.9983904502249211</v>
       </c>
       <c r="M17">
-        <v>1.040203019639469</v>
+        <v>1.002179985570643</v>
       </c>
       <c r="N17">
-        <v>1.011926623198248</v>
+        <v>1.001700134588391</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017583141690467</v>
+        <v>0.9659430233300561</v>
       </c>
       <c r="D18">
-        <v>1.028331205053017</v>
+        <v>1.024894228848362</v>
       </c>
       <c r="E18">
-        <v>1.028135240876664</v>
+        <v>0.9851210289508128</v>
       </c>
       <c r="F18">
-        <v>1.037075923803407</v>
+        <v>0.9891738470255483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031580603174813</v>
+        <v>1.048408430845768</v>
       </c>
       <c r="J18">
-        <v>1.02381037285804</v>
+        <v>0.9943574115726019</v>
       </c>
       <c r="K18">
-        <v>1.031681728539209</v>
+        <v>1.038296658901221</v>
       </c>
       <c r="L18">
-        <v>1.031486449530693</v>
+        <v>0.9992016323538352</v>
       </c>
       <c r="M18">
-        <v>1.040396162342565</v>
+        <v>1.003182107826275</v>
       </c>
       <c r="N18">
-        <v>1.011975740980657</v>
+        <v>1.001947895398736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017660919335405</v>
+        <v>0.9663488638751325</v>
       </c>
       <c r="D19">
-        <v>1.028365802530607</v>
+        <v>1.025112331066697</v>
       </c>
       <c r="E19">
-        <v>1.028205453752356</v>
+        <v>0.985468571329593</v>
       </c>
       <c r="F19">
-        <v>1.037156312420901</v>
+        <v>0.9895867974490664</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031588245408317</v>
+        <v>1.048508342651495</v>
       </c>
       <c r="J19">
-        <v>1.023860087029973</v>
+        <v>0.9946038801975604</v>
       </c>
       <c r="K19">
-        <v>1.031701778159824</v>
+        <v>1.038448931192511</v>
       </c>
       <c r="L19">
-        <v>1.031541987396352</v>
+        <v>0.9994770217825258</v>
       </c>
       <c r="M19">
-        <v>1.040461987407649</v>
+        <v>1.003522207008696</v>
       </c>
       <c r="N19">
-        <v>1.011992484622944</v>
+        <v>1.002032000503856</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01731309370851</v>
+        <v>0.9645270337507683</v>
       </c>
       <c r="D20">
-        <v>1.028210884209642</v>
+        <v>1.024132492169397</v>
       </c>
       <c r="E20">
-        <v>1.027891453494064</v>
+        <v>0.9839088444022349</v>
       </c>
       <c r="F20">
-        <v>1.036796717970084</v>
+        <v>0.9877328511585961</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03155381903279</v>
+        <v>1.048058120826067</v>
       </c>
       <c r="J20">
-        <v>1.023637724372456</v>
+        <v>0.9934973476604555</v>
       </c>
       <c r="K20">
-        <v>1.031611863170149</v>
+        <v>1.037763870832303</v>
       </c>
       <c r="L20">
-        <v>1.031293567490013</v>
+        <v>0.9982406642367628</v>
       </c>
       <c r="M20">
-        <v>1.040167477498758</v>
+        <v>1.001994888656839</v>
       </c>
       <c r="N20">
-        <v>1.011917586334673</v>
+        <v>1.001654381579518</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016182530209552</v>
+        <v>0.9584802113250992</v>
       </c>
       <c r="D21">
-        <v>1.027703900059749</v>
+        <v>1.020867564685758</v>
       </c>
       <c r="E21">
-        <v>1.026870756209622</v>
+        <v>0.9787394749844074</v>
       </c>
       <c r="F21">
-        <v>1.035626282829194</v>
+        <v>0.9815763386334447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031437539135523</v>
+        <v>1.046533936235913</v>
       </c>
       <c r="J21">
-        <v>1.02291429119643</v>
+        <v>0.9898226095815135</v>
       </c>
       <c r="K21">
-        <v>1.031315189076682</v>
+        <v>1.035464093405878</v>
       </c>
       <c r="L21">
-        <v>1.030485204403914</v>
+        <v>0.9941351483785736</v>
       </c>
       <c r="M21">
-        <v>1.039207812336121</v>
+        <v>0.9969153663567277</v>
       </c>
       <c r="N21">
-        <v>1.011673790955667</v>
+        <v>1.000399909110732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0154718929247</v>
+        <v>0.9545779918963428</v>
       </c>
       <c r="D22">
-        <v>1.027382599495569</v>
+        <v>1.018751995264871</v>
       </c>
       <c r="E22">
-        <v>1.026229120651583</v>
+        <v>0.9754097751330154</v>
       </c>
       <c r="F22">
-        <v>1.034889347431826</v>
+        <v>0.9776015296404906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031361097902842</v>
+        <v>1.0455281140724</v>
       </c>
       <c r="J22">
-        <v>1.022459050683295</v>
+        <v>0.9874498665610677</v>
       </c>
       <c r="K22">
-        <v>1.031125333056326</v>
+        <v>1.033960904985233</v>
       </c>
       <c r="L22">
-        <v>1.029976401312478</v>
+        <v>0.9914846318689711</v>
       </c>
       <c r="M22">
-        <v>1.038602763822839</v>
+        <v>0.9936301576288689</v>
       </c>
       <c r="N22">
-        <v>1.011520282907029</v>
+        <v>0.9995896188128255</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015848596897861</v>
+        <v>0.9566565067433683</v>
       </c>
       <c r="D23">
-        <v>1.027553166905001</v>
+        <v>1.019879579388843</v>
       </c>
       <c r="E23">
-        <v>1.026569252425848</v>
+        <v>0.9771827163473051</v>
       </c>
       <c r="F23">
-        <v>1.035280108736269</v>
+        <v>0.9797188401743808</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031401936131991</v>
+        <v>1.046065900290936</v>
       </c>
       <c r="J23">
-        <v>1.02270041906748</v>
+        <v>0.9887138117308837</v>
       </c>
       <c r="K23">
-        <v>1.031226293854316</v>
+        <v>1.034763305145317</v>
       </c>
       <c r="L23">
-        <v>1.030246179677592</v>
+        <v>0.992896503636584</v>
       </c>
       <c r="M23">
-        <v>1.038923669309951</v>
+        <v>0.9953806578671531</v>
       </c>
       <c r="N23">
-        <v>1.011601681618338</v>
+        <v>1.000021280315863</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017332051021947</v>
+        <v>0.9646267867796218</v>
       </c>
       <c r="D24">
-        <v>1.028219340633712</v>
+        <v>1.024186192971488</v>
       </c>
       <c r="E24">
-        <v>1.027908567552532</v>
+        <v>0.9839942193792556</v>
       </c>
       <c r="F24">
-        <v>1.036816322828647</v>
+        <v>0.9878343755979359</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031555711894149</v>
+        <v>1.048082885429</v>
       </c>
       <c r="J24">
-        <v>1.023649846195956</v>
+        <v>0.9935579433754904</v>
       </c>
       <c r="K24">
-        <v>1.031616780431601</v>
+        <v>1.037801479923639</v>
       </c>
       <c r="L24">
-        <v>1.031307110380728</v>
+        <v>0.9983083682757841</v>
       </c>
       <c r="M24">
-        <v>1.040183538037239</v>
+        <v>1.002078555464075</v>
       </c>
       <c r="N24">
-        <v>1.011921669781672</v>
+        <v>1.001675062313568</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019054354681104</v>
+        <v>0.9734729827118054</v>
       </c>
       <c r="D25">
-        <v>1.028981256504333</v>
+        <v>1.028922686465297</v>
       </c>
       <c r="E25">
-        <v>1.029463253028167</v>
+        <v>0.9915775108879854</v>
       </c>
       <c r="F25">
-        <v>1.038594466824935</v>
+        <v>0.9968307123418469</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031719602601554</v>
+        <v>1.050223932611134</v>
       </c>
       <c r="J25">
-        <v>1.024749894367964</v>
+        <v>0.9989272962311802</v>
       </c>
       <c r="K25">
-        <v>1.032055370493441</v>
+        <v>1.041088013291202</v>
       </c>
       <c r="L25">
-        <v>1.032535830985353</v>
+        <v>1.00430799756669</v>
       </c>
       <c r="M25">
-        <v>1.04163823971371</v>
+        <v>1.009478427460612</v>
       </c>
       <c r="N25">
-        <v>1.012292015425343</v>
+        <v>1.003506740663406</v>
       </c>
     </row>
   </sheetData>
